--- a/data/trans_orig/P36BPD02_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E796F71F-8438-4A8D-8B90-E8562D84B283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2587FED-6F73-42DE-BD18-4790876F4EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E19331E-6051-49B1-8B52-D5513166BE45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B8A6034-E87D-4566-B847-EBA0366F95BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
   <si>
     <t>Población según la cantidad de aceite de oliva que consumen al día en 2023 (Tasa respuesta: 96,09%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>5,36%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>Dos o tres cucharadas</t>
@@ -104,28 +104,28 @@
     <t>41,6%</t>
   </si>
   <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
   </si>
   <si>
     <t>32,76%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>36,63%</t>
   </si>
   <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>Cuatro o más cucharadas</t>
@@ -134,28 +134,28 @@
     <t>53,04%</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>57,01%</t>
   </si>
   <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,73 +167,73 @@
     <t>13,42%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
   </si>
   <si>
     <t>46,55%</t>
   </si>
   <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>47,54%</t>
   </si>
   <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>35,63%</t>
   </si>
   <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>36,73%</t>
@@ -242,7 +242,7 @@
     <t>34,03%</t>
   </si>
   <si>
-    <t>39,27%</t>
+    <t>39,26%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -251,10 +251,10 @@
     <t>17,32%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>15,7%</t>
@@ -263,70 +263,67 @@
     <t>13,66%</t>
   </si>
   <si>
-    <t>17,94%</t>
+    <t>18,12%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>50,49%</t>
   </si>
   <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
   </si>
   <si>
     <t>47,72%</t>
   </si>
   <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
   </si>
   <si>
     <t>37,79%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
   </si>
   <si>
     <t>33,81%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
+    <t>31,26%</t>
   </si>
   <si>
     <t>35,78%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -335,82 +332,82 @@
     <t>14,66%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>50,81%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
   </si>
   <si>
     <t>41,88%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
   </si>
   <si>
     <t>45,87%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>43,53%</t>
   </si>
   <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
   </si>
   <si>
     <t>39,51%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -419,106 +416,106 @@
     <t>13,13%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>46,07%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
   </si>
   <si>
     <t>45,83%</t>
   </si>
   <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
     <t>42,85%</t>
   </si>
   <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>14,86%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>13,64%</t>
+    <t>13,76%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -527,55 +524,52 @@
     <t>46,99%</t>
   </si>
   <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
   </si>
   <si>
     <t>45,91%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>46,42%</t>
   </si>
   <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
+    <t>47,99%</t>
   </si>
   <si>
     <t>38,44%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
   </si>
   <si>
     <t>38,86%</t>
   </si>
   <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA768346-817C-4D1B-A687-298C4103F3CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C477A2A-E391-4016-83DB-B1E71B1512A1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1649,7 +1643,7 @@
         <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="M14" s="7">
         <v>821</v>
@@ -1658,13 +1652,13 @@
         <v>708385</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,7 +1714,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1732,13 +1726,13 @@
         <v>98860</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -1747,13 +1741,13 @@
         <v>121763</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>269</v>
@@ -1762,13 +1756,13 @@
         <v>220624</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,13 +1777,13 @@
         <v>342682</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -1798,13 +1792,13 @@
         <v>349431</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>757</v>
@@ -1813,13 +1807,13 @@
         <v>692113</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,13 +1828,13 @@
         <v>232853</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>377</v>
@@ -1849,13 +1843,13 @@
         <v>363207</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>606</v>
@@ -1864,13 +1858,13 @@
         <v>596060</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,7 +1920,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1938,13 +1932,13 @@
         <v>124900</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
@@ -1953,13 +1947,13 @@
         <v>155226</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>348</v>
@@ -1968,13 +1962,13 @@
         <v>280125</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,13 +1983,13 @@
         <v>438141</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>711</v>
@@ -2004,13 +1998,13 @@
         <v>522599</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>1171</v>
@@ -2019,13 +2013,13 @@
         <v>960740</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2034,13 @@
         <v>387983</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>630</v>
@@ -2055,13 +2049,13 @@
         <v>462462</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>1025</v>
@@ -2070,13 +2064,13 @@
         <v>850445</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2138,13 @@
         <v>467662</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>771</v>
@@ -2159,13 +2153,13 @@
         <v>544058</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>1262</v>
@@ -2174,13 +2168,13 @@
         <v>1011720</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2189,13 @@
         <v>1509145</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>2419</v>
@@ -2210,13 +2204,13 @@
         <v>1680681</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>3941</v>
@@ -2225,13 +2219,13 @@
         <v>3189826</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2240,13 @@
         <v>1234499</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>1968</v>
@@ -2261,13 +2255,13 @@
         <v>1436167</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>3198</v>
@@ -2276,13 +2270,13 @@
         <v>2670666</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2332,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD02_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2587FED-6F73-42DE-BD18-4790876F4EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1D90F4E-1480-4F64-8C4F-D6A9D0D40BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B8A6034-E87D-4566-B847-EBA0366F95BF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DC0F91C6-AB19-4A3D-8DCA-816D4D00BFA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="151">
   <si>
     <t>Población según la cantidad de aceite de oliva que consumen al día en 2023 (Tasa respuesta: 96,09%)</t>
   </si>
@@ -65,511 +65,427 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Menos de dos cucharadas</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>Dos o tres cucharadas</t>
   </si>
   <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
   </si>
   <si>
     <t>Cuatro o más cucharadas</t>
   </si>
   <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>46,55%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,8 +900,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C477A2A-E391-4016-83DB-B1E71B1512A1}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6B6579-01AF-4868-A01D-BF34845DA9DF}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1102,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7">
-        <v>4749</v>
+        <v>68504</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1117,10 +1033,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="I4" s="7">
-        <v>8115</v>
+        <v>100149</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1132,10 +1048,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>276</v>
       </c>
       <c r="N4" s="7">
-        <v>12864</v>
+        <v>168653</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1153,10 +1069,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="D5" s="7">
-        <v>36853</v>
+        <v>273688</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1168,10 +1084,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>74</v>
+        <v>522</v>
       </c>
       <c r="I5" s="7">
-        <v>37261</v>
+        <v>278487</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1183,10 +1099,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>114</v>
+        <v>841</v>
       </c>
       <c r="N5" s="7">
-        <v>74113</v>
+        <v>552174</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1204,10 +1120,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c r="D6" s="7">
-        <v>46995</v>
+        <v>245184</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1219,10 +1135,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>119</v>
+        <v>462</v>
       </c>
       <c r="I6" s="7">
-        <v>68363</v>
+        <v>262608</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1234,10 +1150,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>177</v>
+        <v>746</v>
       </c>
       <c r="N6" s="7">
-        <v>115359</v>
+        <v>507792</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1255,10 +1171,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>692</v>
       </c>
       <c r="D7" s="7">
-        <v>88597</v>
+        <v>587375</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1270,10 +1186,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>212</v>
+        <v>1171</v>
       </c>
       <c r="I7" s="7">
-        <v>113739</v>
+        <v>641244</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1285,10 +1201,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>317</v>
+        <v>1863</v>
       </c>
       <c r="N7" s="7">
-        <v>202336</v>
+        <v>1228619</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1308,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>69364</v>
+        <v>158525</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1323,10 +1239,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="I8" s="7">
-        <v>102088</v>
+        <v>140487</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1338,10 +1254,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="N8" s="7">
-        <v>171451</v>
+        <v>299012</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1359,10 +1275,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>279</v>
+        <v>436</v>
       </c>
       <c r="D9" s="7">
-        <v>251490</v>
+        <v>409653</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1374,10 +1290,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>448</v>
+        <v>736</v>
       </c>
       <c r="I9" s="7">
-        <v>266795</v>
+        <v>446504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1389,10 +1305,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>727</v>
+        <v>1172</v>
       </c>
       <c r="N9" s="7">
-        <v>518285</v>
+        <v>856156</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1410,10 +1326,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="D10" s="7">
-        <v>196190</v>
+        <v>565898</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1425,10 +1341,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>343</v>
+        <v>499</v>
       </c>
       <c r="I10" s="7">
-        <v>204228</v>
+        <v>315405</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1440,10 +1356,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>569</v>
+        <v>821</v>
       </c>
       <c r="N10" s="7">
-        <v>400418</v>
+        <v>881303</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1461,10 +1377,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>587</v>
+        <v>923</v>
       </c>
       <c r="D11" s="7">
-        <v>517044</v>
+        <v>1134076</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1476,10 +1392,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>959</v>
+        <v>1439</v>
       </c>
       <c r="I11" s="7">
-        <v>573111</v>
+        <v>902396</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1491,10 +1407,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1546</v>
+        <v>2362</v>
       </c>
       <c r="N11" s="7">
-        <v>1090155</v>
+        <v>2036472</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1514,49 +1430,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="D12" s="7">
-        <v>169789</v>
+        <v>94922</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>172</v>
+      </c>
+      <c r="I12" s="7">
+        <v>112126</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="7">
-        <v>204</v>
-      </c>
-      <c r="I12" s="7">
-        <v>156865</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>269</v>
+      </c>
+      <c r="N12" s="7">
+        <v>207047</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="7">
-        <v>369</v>
-      </c>
-      <c r="N12" s="7">
-        <v>326655</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,49 +1481,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>436</v>
+        <v>307</v>
       </c>
       <c r="D13" s="7">
-        <v>439980</v>
+        <v>324645</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>450</v>
+      </c>
+      <c r="I13" s="7">
+        <v>340789</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="7">
-        <v>736</v>
-      </c>
-      <c r="I13" s="7">
-        <v>504596</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>757</v>
+      </c>
+      <c r="N13" s="7">
+        <v>665435</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="7">
-        <v>1172</v>
-      </c>
-      <c r="N13" s="7">
-        <v>944575</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,40 +1532,40 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D14" s="7">
-        <v>370478</v>
+        <v>231947</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>377</v>
+      </c>
+      <c r="I14" s="7">
+        <v>444418</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="7">
-        <v>499</v>
-      </c>
-      <c r="I14" s="7">
-        <v>337907</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="M14" s="7">
-        <v>821</v>
+        <v>606</v>
       </c>
       <c r="N14" s="7">
-        <v>708385</v>
+        <v>676365</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -1667,10 +1583,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>923</v>
+        <v>633</v>
       </c>
       <c r="D15" s="7">
-        <v>980247</v>
+        <v>651514</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1682,10 +1598,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1439</v>
+        <v>999</v>
       </c>
       <c r="I15" s="7">
-        <v>999368</v>
+        <v>897333</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1697,10 +1613,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2362</v>
+        <v>1632</v>
       </c>
       <c r="N15" s="7">
-        <v>1979615</v>
+        <v>1548847</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1720,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="D16" s="7">
-        <v>98860</v>
+        <v>119247</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -1735,10 +1651,10 @@
         <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="I16" s="7">
-        <v>121763</v>
+        <v>139732</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -1750,10 +1666,10 @@
         <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="N16" s="7">
-        <v>220624</v>
+        <v>258979</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -1762,7 +1678,7 @@
         <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,49 +1687,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>307</v>
+        <v>460</v>
       </c>
       <c r="D17" s="7">
-        <v>342682</v>
+        <v>406439</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>711</v>
+      </c>
+      <c r="I17" s="7">
+        <v>465458</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="7">
-        <v>450</v>
-      </c>
-      <c r="I17" s="7">
-        <v>349431</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1171</v>
+      </c>
+      <c r="N17" s="7">
+        <v>871897</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M17" s="7">
-        <v>757</v>
-      </c>
-      <c r="N17" s="7">
-        <v>692113</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,49 +1738,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>229</v>
+        <v>395</v>
       </c>
       <c r="D18" s="7">
-        <v>232853</v>
+        <v>385958</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>630</v>
+      </c>
+      <c r="I18" s="7">
+        <v>480673</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="7">
-        <v>377</v>
-      </c>
-      <c r="I18" s="7">
-        <v>363207</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>1025</v>
+      </c>
+      <c r="N18" s="7">
+        <v>866632</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="7">
-        <v>606</v>
-      </c>
-      <c r="N18" s="7">
-        <v>596060</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,10 +1789,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>633</v>
+        <v>995</v>
       </c>
       <c r="D19" s="7">
-        <v>674395</v>
+        <v>911644</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1888,10 +1804,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>999</v>
+        <v>1549</v>
       </c>
       <c r="I19" s="7">
-        <v>834401</v>
+        <v>1085863</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1903,10 +1819,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1632</v>
+        <v>2544</v>
       </c>
       <c r="N19" s="7">
-        <v>1508796</v>
+        <v>1997507</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1920,55 +1836,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>140</v>
+        <v>491</v>
       </c>
       <c r="D20" s="7">
-        <v>124900</v>
+        <v>441198</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>771</v>
+      </c>
+      <c r="I20" s="7">
+        <v>492494</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="7">
-        <v>208</v>
-      </c>
-      <c r="I20" s="7">
-        <v>155226</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1262</v>
+      </c>
+      <c r="N20" s="7">
+        <v>933691</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M20" s="7">
-        <v>348</v>
-      </c>
-      <c r="N20" s="7">
-        <v>280125</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,49 +1893,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>460</v>
+        <v>1522</v>
       </c>
       <c r="D21" s="7">
-        <v>438141</v>
+        <v>1414425</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>2419</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1531237</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="7">
-        <v>711</v>
-      </c>
-      <c r="I21" s="7">
-        <v>522599</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>3941</v>
+      </c>
+      <c r="N21" s="7">
+        <v>2945662</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="7">
-        <v>1171</v>
-      </c>
-      <c r="N21" s="7">
-        <v>960740</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,49 +1944,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>395</v>
+        <v>1230</v>
       </c>
       <c r="D22" s="7">
-        <v>387983</v>
+        <v>1428987</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1968</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1503105</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="7">
-        <v>630</v>
-      </c>
-      <c r="I22" s="7">
-        <v>462462</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3198</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2932092</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M22" s="7">
-        <v>1025</v>
-      </c>
-      <c r="N22" s="7">
-        <v>850445</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,10 +1995,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>995</v>
+        <v>3243</v>
       </c>
       <c r="D23" s="7">
-        <v>951023</v>
+        <v>3284609</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2094,10 +2010,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1549</v>
+        <v>5158</v>
       </c>
       <c r="I23" s="7">
-        <v>1140287</v>
+        <v>3526836</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2109,10 +2025,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2544</v>
+        <v>8401</v>
       </c>
       <c r="N23" s="7">
-        <v>2091310</v>
+        <v>6811445</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2125,222 +2041,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>491</v>
-      </c>
-      <c r="D24" s="7">
-        <v>467662</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="7">
-        <v>771</v>
-      </c>
-      <c r="I24" s="7">
-        <v>544058</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1262</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1011720</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1522</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1509145</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2419</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1680681</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3941</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3189826</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1230</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1234499</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1968</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1436167</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3198</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2670666</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3243</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3211306</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5158</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3660906</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8401</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6872212</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>178</v>
+      <c r="A24" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
